--- a/src/test/java/Data/DataPrueba.xlsx
+++ b/src/test/java/Data/DataPrueba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14610" windowHeight="4590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14100" windowHeight="2895"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>NombreApellido</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Carabayllo</t>
   </si>
   <si>
-    <t>Flor Quispe</t>
-  </si>
-  <si>
     <t>fquispe@quispe.com</t>
   </si>
   <si>
@@ -62,29 +59,23 @@
     <t>Surco</t>
   </si>
   <si>
-    <t>Juam Meza</t>
-  </si>
-  <si>
-    <t>jmeza@quispe.com</t>
-  </si>
-  <si>
     <t>Registro de Prueba 1</t>
   </si>
   <si>
     <t>Registro de Prueba 2</t>
   </si>
   <si>
-    <t>Registro de Prueba 3</t>
-  </si>
-  <si>
     <t>CP</t>
+  </si>
+  <si>
+    <t>George Mezones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,14 +87,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,13 +119,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -452,7 +434,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +462,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -502,64 +484,40 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>17</v>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="C3" s="4">
         <v>43692</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4">
-        <v>43692</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="5"/>
-    </row>
+    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>